--- a/data/tf1.xlsx
+++ b/data/tf1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>md</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>azimuth</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,6 +128,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -130,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +528,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -516,8 +548,17 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="19">
+        <v>100</v>
+      </c>
+      <c r="E2" s="19">
+        <v>100</v>
+      </c>
+      <c r="F2" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -529,7 +570,7 @@
         <v>142.37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>75</v>
       </c>
@@ -541,7 +582,7 @@
         <v>33.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -553,7 +594,7 @@
         <v>288.11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>125</v>
       </c>
@@ -565,7 +606,7 @@
         <v>199.57</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -576,7 +617,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>175</v>
       </c>
@@ -587,7 +628,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>200</v>
       </c>
@@ -598,7 +639,7 @@
         <v>327.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>225</v>
       </c>
@@ -609,7 +650,7 @@
         <v>283.26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>250</v>
       </c>
@@ -620,7 +661,7 @@
         <v>236.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>275</v>
       </c>
@@ -631,7 +672,7 @@
         <v>143.68</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>300</v>
       </c>
@@ -642,7 +683,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>325</v>
       </c>
@@ -653,7 +694,7 @@
         <v>314.37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>350</v>
       </c>
@@ -664,7 +705,7 @@
         <v>213.29</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>375</v>
       </c>

--- a/data/tf1.xlsx
+++ b/data/tf1.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="19">
-        <v>1000</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
